--- a/data wisata.xlsx
+++ b/data wisata.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder Nella\Kuliah\belajar\Semester 6\INFORMATIKA PARIWISATA\projek\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FEFFD1-E79E-4E47-8184-9CE39CF552DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/iYp3tn6yC7WTnW5WyfNUNd0XLx5i9NAHjxCWpFFDm8="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1026">
   <si>
     <t>Username</t>
   </si>
@@ -3253,27 +3262,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -3283,7 +3293,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3293,7 +3303,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -3307,52 +3323,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3542,26 +3558,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="D483" sqref="D483"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="24.14"/>
-    <col customWidth="1" min="3" max="3" width="100.71"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3572,9 +3590,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -3586,9 +3604,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -3600,9 +3618,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -3614,9 +3632,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -3628,9 +3646,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -3642,9 +3660,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -3656,9 +3674,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -3670,9 +3688,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -3684,9 +3702,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3698,9 +3716,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3712,9 +3730,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -3726,9 +3744,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -3740,9 +3758,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
@@ -3754,9 +3772,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -3768,9 +3786,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -3782,9 +3800,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -3796,9 +3814,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>37</v>
@@ -3810,9 +3828,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -3824,9 +3842,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -3838,9 +3856,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -3852,9 +3870,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -3866,9 +3884,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -3880,9 +3898,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -3894,9 +3912,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -3908,9 +3926,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>54</v>
@@ -3922,9 +3940,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>56</v>
@@ -3936,9 +3954,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>58</v>
@@ -3950,9 +3968,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>60</v>
@@ -3964,9 +3982,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>62</v>
@@ -3978,9 +3996,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
@@ -3992,9 +4010,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>66</v>
@@ -4006,9 +4024,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>68</v>
@@ -4020,9 +4038,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>70</v>
@@ -4034,9 +4052,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>72</v>
@@ -4048,9 +4066,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>74</v>
@@ -4062,9 +4080,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
@@ -4076,9 +4094,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>78</v>
@@ -4090,9 +4108,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>80</v>
@@ -4104,9 +4122,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>82</v>
@@ -4118,9 +4136,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>84</v>
@@ -4132,9 +4150,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>86</v>
@@ -4146,9 +4164,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>88</v>
@@ -4160,9 +4178,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>90</v>
@@ -4174,9 +4192,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>92</v>
@@ -4188,9 +4206,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>94</v>
@@ -4202,9 +4220,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>96</v>
@@ -4216,9 +4234,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>98</v>
@@ -4230,9 +4248,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>100</v>
@@ -4244,9 +4262,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>102</v>
@@ -4258,9 +4276,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>104</v>
@@ -4272,9 +4290,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>106</v>
@@ -4286,9 +4304,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>108</v>
@@ -4300,9 +4318,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>110</v>
@@ -4314,9 +4332,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>112</v>
@@ -4328,9 +4346,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>114</v>
@@ -4342,9 +4360,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>116</v>
@@ -4356,9 +4374,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>118</v>
@@ -4370,9 +4388,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>120</v>
@@ -4384,9 +4402,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -4398,9 +4416,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>124</v>
@@ -4412,9 +4430,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>126</v>
@@ -4426,9 +4444,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>128</v>
@@ -4440,9 +4458,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>130</v>
@@ -4454,9 +4472,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>132</v>
@@ -4468,9 +4486,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>134</v>
@@ -4482,9 +4500,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>136</v>
@@ -4496,9 +4514,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>138</v>
@@ -4510,9 +4528,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>140</v>
@@ -4524,9 +4542,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>142</v>
@@ -4538,9 +4556,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>144</v>
@@ -4552,9 +4570,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>146</v>
@@ -4566,9 +4584,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>148</v>
@@ -4580,9 +4598,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>150</v>
@@ -4594,9 +4612,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>152</v>
@@ -4608,9 +4626,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>154</v>
@@ -4622,9 +4640,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>156</v>
@@ -4636,9 +4654,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>158</v>
@@ -4650,9 +4668,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>160</v>
@@ -4664,9 +4682,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>162</v>
@@ -4678,9 +4696,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>164</v>
@@ -4692,9 +4710,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>166</v>
@@ -4706,9 +4724,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>168</v>
@@ -4720,9 +4738,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>170</v>
@@ -4734,9 +4752,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -4748,9 +4766,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -4762,9 +4780,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>176</v>
@@ -4776,9 +4794,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>178</v>
@@ -4790,9 +4808,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>180</v>
@@ -4804,9 +4822,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>182</v>
@@ -4818,9 +4836,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>184</v>
@@ -4832,9 +4850,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>186</v>
@@ -4846,9 +4864,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>188</v>
@@ -4860,9 +4878,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>190</v>
@@ -4874,9 +4892,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>192</v>
@@ -4888,9 +4906,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>194</v>
@@ -4902,9 +4920,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>196</v>
@@ -4916,9 +4934,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>198</v>
@@ -4930,9 +4948,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>200</v>
@@ -4944,9 +4962,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>202</v>
@@ -4958,9 +4976,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>204</v>
@@ -4972,9 +4990,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>206</v>
@@ -4986,9 +5004,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>208</v>
@@ -5000,9 +5018,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>210</v>
@@ -5014,9 +5032,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>212</v>
@@ -5028,9 +5046,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>214</v>
@@ -5042,9 +5060,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>216</v>
@@ -5056,9 +5074,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>218</v>
@@ -5070,9 +5088,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>220</v>
@@ -5084,9 +5102,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>222</v>
@@ -5098,9 +5116,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>224</v>
@@ -5112,9 +5130,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>226</v>
@@ -5126,9 +5144,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>228</v>
@@ -5140,9 +5158,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>230</v>
@@ -5154,9 +5172,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>232</v>
@@ -5168,9 +5186,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>234</v>
@@ -5182,9 +5200,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>236</v>
@@ -5196,9 +5214,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>238</v>
@@ -5210,9 +5228,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>240</v>
@@ -5224,9 +5242,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>242</v>
@@ -5238,9 +5256,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>244</v>
@@ -5252,9 +5270,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>246</v>
@@ -5266,9 +5284,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>248</v>
@@ -5280,9 +5298,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>250</v>
@@ -5294,9 +5312,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>252</v>
@@ -5308,9 +5326,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>254</v>
@@ -5322,9 +5340,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>256</v>
@@ -5336,9 +5354,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>258</v>
@@ -5350,9 +5368,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>260</v>
@@ -5364,9 +5382,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>262</v>
@@ -5378,9 +5396,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>264</v>
@@ -5392,9 +5410,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>266</v>
@@ -5406,9 +5424,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>268</v>
@@ -5420,9 +5438,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>270</v>
@@ -5434,9 +5452,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>272</v>
@@ -5448,9 +5466,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>274</v>
@@ -5462,9 +5480,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>276</v>
@@ -5476,9 +5494,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>278</v>
@@ -5490,9 +5508,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>280</v>
@@ -5504,9 +5522,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>282</v>
@@ -5518,9 +5536,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>284</v>
@@ -5532,9 +5550,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>286</v>
@@ -5546,9 +5564,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>288</v>
@@ -5560,9 +5578,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>290</v>
@@ -5574,9 +5592,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>292</v>
@@ -5588,9 +5606,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>294</v>
@@ -5602,9 +5620,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>296</v>
@@ -5616,9 +5634,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>298</v>
@@ -5630,9 +5648,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>300</v>
@@ -5644,9 +5662,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>302</v>
@@ -5658,9 +5676,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>304</v>
@@ -5672,9 +5690,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>306</v>
@@ -5686,9 +5704,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>308</v>
@@ -5700,9 +5718,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>310</v>
@@ -5714,9 +5732,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>312</v>
@@ -5728,9 +5746,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>314</v>
@@ -5742,9 +5760,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>316</v>
@@ -5756,9 +5774,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>318</v>
@@ -5770,9 +5788,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>320</v>
@@ -5784,9 +5802,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>322</v>
@@ -5798,9 +5816,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>324</v>
@@ -5812,9 +5830,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>326</v>
@@ -5826,9 +5844,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>328</v>
@@ -5840,9 +5858,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>330</v>
@@ -5854,9 +5872,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>332</v>
@@ -5868,9 +5886,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>334</v>
@@ -5882,9 +5900,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>336</v>
@@ -5896,9 +5914,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>338</v>
@@ -5910,9 +5928,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>340</v>
@@ -5924,9 +5942,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>342</v>
@@ -5938,9 +5956,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>344</v>
@@ -5952,9 +5970,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>346</v>
@@ -5966,9 +5984,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>348</v>
@@ -5980,9 +5998,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>350</v>
@@ -5994,9 +6012,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>352</v>
@@ -6008,9 +6026,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>354</v>
@@ -6022,9 +6040,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>356</v>
@@ -6036,9 +6054,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>358</v>
@@ -6050,9 +6068,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>360</v>
@@ -6064,9 +6082,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>362</v>
@@ -6078,9 +6096,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>364</v>
@@ -6092,9 +6110,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>366</v>
@@ -6106,9 +6124,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>368</v>
@@ -6120,9 +6138,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>370</v>
@@ -6134,9 +6152,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>372</v>
@@ -6148,9 +6166,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>374</v>
@@ -6162,9 +6180,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>376</v>
@@ -6176,9 +6194,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>378</v>
@@ -6190,9 +6208,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>380</v>
@@ -6204,9 +6222,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>382</v>
@@ -6218,9 +6236,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>384</v>
@@ -6232,9 +6250,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>386</v>
@@ -6246,9 +6264,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>388</v>
@@ -6260,9 +6278,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>390</v>
@@ -6274,9 +6292,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>392</v>
@@ -6288,9 +6306,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>394</v>
@@ -6302,9 +6320,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>396</v>
@@ -6316,9 +6334,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>398</v>
@@ -6330,9 +6348,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>400</v>
@@ -6344,9 +6362,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>402</v>
@@ -6358,9 +6376,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>404</v>
@@ -6372,9 +6390,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>406</v>
@@ -6386,9 +6404,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>408</v>
@@ -6400,9 +6418,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>410</v>
@@ -6414,9 +6432,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>412</v>
@@ -6428,9 +6446,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>414</v>
@@ -6442,9 +6460,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>416</v>
@@ -6456,9 +6474,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>418</v>
@@ -6470,9 +6488,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>420</v>
@@ -6484,9 +6502,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>422</v>
@@ -6498,9 +6516,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>424</v>
@@ -6512,9 +6530,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>426</v>
@@ -6526,9 +6544,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>428</v>
@@ -6540,9 +6558,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>430</v>
@@ -6554,9 +6572,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>432</v>
@@ -6568,9 +6586,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>434</v>
@@ -6582,9 +6600,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>436</v>
@@ -6596,9 +6614,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>438</v>
@@ -6610,9 +6628,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>440</v>
@@ -6624,9 +6642,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>442</v>
@@ -6638,9 +6656,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>444</v>
@@ -6652,9 +6670,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>446</v>
@@ -6666,9 +6684,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>448</v>
@@ -6680,9 +6698,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>450</v>
@@ -6694,9 +6712,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>452</v>
@@ -6708,9 +6726,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>454</v>
@@ -6722,9 +6740,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>456</v>
@@ -6736,9 +6754,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>458</v>
@@ -6750,9 +6768,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>460</v>
@@ -6764,9 +6782,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>462</v>
@@ -6778,9 +6796,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>464</v>
@@ -6792,9 +6810,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>466</v>
@@ -6806,9 +6824,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>468</v>
@@ -6820,9 +6838,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>470</v>
@@ -6834,9 +6852,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>472</v>
@@ -6848,9 +6866,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>474</v>
@@ -6862,9 +6880,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>476</v>
@@ -6876,9 +6894,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>478</v>
@@ -6890,9 +6908,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>480</v>
@@ -6904,9 +6922,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>482</v>
@@ -6918,9 +6936,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>484</v>
@@ -6932,9 +6950,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>486</v>
@@ -6946,9 +6964,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>488</v>
@@ -6960,9 +6978,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>490</v>
@@ -6974,9 +6992,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>492</v>
@@ -6988,9 +7006,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>494</v>
@@ -7002,9 +7020,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>496</v>
@@ -7016,9 +7034,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>498</v>
@@ -7030,9 +7048,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>500</v>
@@ -7044,9 +7062,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>502</v>
@@ -7058,9 +7076,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>504</v>
@@ -7072,9 +7090,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>506</v>
@@ -7086,9 +7104,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>508</v>
@@ -7100,9 +7118,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>510</v>
@@ -7114,9 +7132,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>512</v>
@@ -7128,9 +7146,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>514</v>
@@ -7142,9 +7160,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>516</v>
@@ -7156,9 +7174,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>518</v>
@@ -7170,9 +7188,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>520</v>
@@ -7184,9 +7202,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>522</v>
@@ -7198,9 +7216,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>524</v>
@@ -7212,9 +7230,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>526</v>
@@ -7226,9 +7244,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>528</v>
@@ -7240,9 +7258,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>530</v>
@@ -7254,9 +7272,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>532</v>
@@ -7268,9 +7286,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>534</v>
@@ -7282,9 +7300,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>536</v>
@@ -7296,9 +7314,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>538</v>
@@ -7310,9 +7328,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>540</v>
@@ -7324,9 +7342,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>542</v>
@@ -7338,9 +7356,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>544</v>
@@ -7352,9 +7370,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>546</v>
@@ -7366,9 +7384,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>548</v>
@@ -7380,9 +7398,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>550</v>
@@ -7394,9 +7412,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>552</v>
@@ -7408,9 +7426,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>554</v>
@@ -7422,9 +7440,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>556</v>
@@ -7436,9 +7454,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>558</v>
@@ -7450,9 +7468,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>560</v>
@@ -7464,9 +7482,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>562</v>
@@ -7478,9 +7496,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>564</v>
@@ -7492,9 +7510,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>566</v>
@@ -7506,9 +7524,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>568</v>
@@ -7520,9 +7538,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>570</v>
@@ -7534,9 +7552,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>572</v>
@@ -7548,9 +7566,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>574</v>
@@ -7562,9 +7580,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>576</v>
@@ -7576,9 +7594,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>578</v>
@@ -7590,9 +7608,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>580</v>
@@ -7604,9 +7622,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>582</v>
@@ -7618,9 +7636,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>584</v>
@@ -7632,9 +7650,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>586</v>
@@ -7646,9 +7664,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>588</v>
@@ -7660,9 +7678,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>590</v>
@@ -7674,9 +7692,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>592</v>
@@ -7688,9 +7706,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>594</v>
@@ -7702,9 +7720,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>596</v>
@@ -7716,9 +7734,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>598</v>
@@ -7730,9 +7748,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>600</v>
@@ -7744,9 +7762,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>602</v>
@@ -7758,9 +7776,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>604</v>
@@ -7772,9 +7790,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>606</v>
@@ -7786,9 +7804,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>608</v>
@@ -7800,9 +7818,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>610</v>
@@ -7814,9 +7832,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>612</v>
@@ -7828,9 +7846,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>614</v>
@@ -7842,9 +7860,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>616</v>
@@ -7856,9 +7874,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>618</v>
@@ -7870,9 +7888,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>620</v>
@@ -7884,9 +7902,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>622</v>
@@ -7898,9 +7916,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>624</v>
@@ -7912,9 +7930,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>626</v>
@@ -7926,9 +7944,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>628</v>
@@ -7940,9 +7958,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>630</v>
@@ -7954,9 +7972,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>632</v>
@@ -7968,9 +7986,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>634</v>
@@ -7982,9 +8000,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>636</v>
@@ -7996,9 +8014,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>638</v>
@@ -8010,9 +8028,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>640</v>
@@ -8024,9 +8042,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>642</v>
@@ -8038,9 +8056,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>644</v>
@@ -8052,9 +8070,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>646</v>
@@ -8066,9 +8084,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>648</v>
@@ -8080,9 +8098,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>650</v>
@@ -8094,9 +8112,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>652</v>
@@ -8108,9 +8126,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>654</v>
@@ -8122,9 +8140,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>656</v>
@@ -8136,9 +8154,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>658</v>
@@ -8150,9 +8168,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>660</v>
@@ -8164,9 +8182,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>662</v>
@@ -8178,9 +8196,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>664</v>
@@ -8192,9 +8210,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>666</v>
@@ -8206,9 +8224,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>668</v>
@@ -8220,9 +8238,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>670</v>
@@ -8234,9 +8252,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>672</v>
@@ -8248,9 +8266,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>674</v>
@@ -8262,9 +8280,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>676</v>
@@ -8276,9 +8294,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>678</v>
@@ -8290,9 +8308,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>680</v>
@@ -8304,9 +8322,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>682</v>
@@ -8318,9 +8336,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>684</v>
@@ -8332,9 +8350,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>686</v>
@@ -8346,9 +8364,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>688</v>
@@ -8360,9 +8378,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>690</v>
@@ -8374,9 +8392,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>692</v>
@@ -8388,9 +8406,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>694</v>
@@ -8402,9 +8420,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>696</v>
@@ -8416,9 +8434,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>698</v>
@@ -8430,9 +8448,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>700</v>
@@ -8444,9 +8462,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>702</v>
@@ -8458,9 +8476,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>704</v>
@@ -8472,9 +8490,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>706</v>
@@ -8486,9 +8504,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>708</v>
@@ -8500,9 +8518,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>710</v>
@@ -8514,9 +8532,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>712</v>
@@ -8528,9 +8546,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>714</v>
@@ -8542,9 +8560,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>716</v>
@@ -8556,9 +8574,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>718</v>
@@ -8570,9 +8588,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>720</v>
@@ -8584,9 +8602,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>722</v>
@@ -8598,9 +8616,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>724</v>
@@ -8612,9 +8630,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>726</v>
@@ -8626,9 +8644,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>728</v>
@@ -8640,9 +8658,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>730</v>
@@ -8654,9 +8672,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>732</v>
@@ -8668,9 +8686,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>734</v>
@@ -8682,9 +8700,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>736</v>
@@ -8696,9 +8714,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>738</v>
@@ -8710,9 +8728,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>740</v>
@@ -8724,9 +8742,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>742</v>
@@ -8738,9 +8756,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>744</v>
@@ -8752,9 +8770,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>746</v>
@@ -8766,9 +8784,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>748</v>
@@ -8780,9 +8798,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>750</v>
@@ -8794,9 +8812,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>752</v>
@@ -8808,9 +8826,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>754</v>
@@ -8822,9 +8840,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>756</v>
@@ -8836,9 +8854,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>758</v>
@@ -8850,9 +8868,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>760</v>
@@ -8864,9 +8882,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>762</v>
@@ -8878,9 +8896,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>764</v>
@@ -8892,9 +8910,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>766</v>
@@ -8906,9 +8924,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>768</v>
@@ -8920,9 +8938,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>770</v>
@@ -8934,9 +8952,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>772</v>
@@ -8948,9 +8966,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>774</v>
@@ -8962,9 +8980,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>776</v>
@@ -8976,9 +8994,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>778</v>
@@ -8990,9 +9008,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>780</v>
@@ -9004,9 +9022,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>782</v>
@@ -9018,9 +9036,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>784</v>
@@ -9032,9 +9050,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>786</v>
@@ -9046,9 +9064,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>788</v>
@@ -9060,9 +9078,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>790</v>
@@ -9074,9 +9092,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>792</v>
@@ -9088,9 +9106,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>794</v>
@@ -9102,9 +9120,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>796</v>
@@ -9116,9 +9134,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>798</v>
@@ -9130,9 +9148,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>800</v>
@@ -9144,9 +9162,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>802</v>
@@ -9158,9 +9176,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>804</v>
@@ -9172,9 +9190,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>806</v>
@@ -9186,9 +9204,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>808</v>
@@ -9200,9 +9218,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>810</v>
@@ -9214,9 +9232,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>812</v>
@@ -9228,9 +9246,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>814</v>
@@ -9242,9 +9260,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>816</v>
@@ -9256,9 +9274,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>818</v>
@@ -9270,9 +9288,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>820</v>
@@ -9284,9 +9302,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>822</v>
@@ -9298,9 +9316,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>824</v>
@@ -9312,9 +9330,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>826</v>
@@ -9326,9 +9344,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>828</v>
@@ -9340,9 +9358,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>830</v>
@@ -9354,9 +9372,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>832</v>
@@ -9368,9 +9386,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>834</v>
@@ -9382,9 +9400,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>836</v>
@@ -9396,9 +9414,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>838</v>
@@ -9410,9 +9428,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>840</v>
@@ -9424,9 +9442,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>842</v>
@@ -9438,9 +9456,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>844</v>
@@ -9452,9 +9470,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>846</v>
@@ -9466,9 +9484,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>848</v>
@@ -9480,9 +9498,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>850</v>
@@ -9494,9 +9512,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>852</v>
@@ -9508,9 +9526,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>854</v>
@@ -9522,9 +9540,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>856</v>
@@ -9536,9 +9554,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>858</v>
@@ -9550,9 +9568,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>860</v>
@@ -9564,9 +9582,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>862</v>
@@ -9578,9 +9596,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>864</v>
@@ -9592,9 +9610,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>866</v>
@@ -9606,9 +9624,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>868</v>
@@ -9620,9 +9638,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>870</v>
@@ -9634,9 +9652,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>872</v>
@@ -9648,9 +9666,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>874</v>
@@ -9662,9 +9680,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>876</v>
@@ -9676,9 +9694,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>878</v>
@@ -9690,9 +9708,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>880</v>
@@ -9704,9 +9722,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>882</v>
@@ -9718,9 +9736,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>884</v>
@@ -9732,9 +9750,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>886</v>
@@ -9746,9 +9764,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>888</v>
@@ -9760,9 +9778,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>890</v>
@@ -9774,9 +9792,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>892</v>
@@ -9788,9 +9806,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>894</v>
@@ -9802,9 +9820,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>896</v>
@@ -9816,9 +9834,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>898</v>
@@ -9830,9 +9848,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
-        <v>447.0</v>
+        <v>447</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>900</v>
@@ -9844,9 +9862,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
-        <v>448.0</v>
+        <v>448</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>902</v>
@@ -9858,9 +9876,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>904</v>
@@ -9872,9 +9890,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>906</v>
@@ -9886,9 +9904,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>908</v>
@@ -9900,9 +9918,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
-        <v>452.0</v>
+        <v>452</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>910</v>
@@ -9914,9 +9932,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
-        <v>453.0</v>
+        <v>453</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>912</v>
@@ -9928,9 +9946,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>914</v>
@@ -9942,9 +9960,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>916</v>
@@ -9956,9 +9974,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
-        <v>456.0</v>
+        <v>456</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>918</v>
@@ -9970,9 +9988,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
-        <v>457.0</v>
+        <v>457</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>920</v>
@@ -9984,9 +10002,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>922</v>
@@ -9998,9 +10016,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>924</v>
@@ -10012,9 +10030,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>926</v>
@@ -10026,9 +10044,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>928</v>
@@ -10040,9 +10058,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>930</v>
@@ -10054,9 +10072,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
-        <v>463.0</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>932</v>
@@ -10068,9 +10086,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>934</v>
@@ -10082,9 +10100,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>936</v>
@@ -10096,9 +10114,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
-        <v>466.0</v>
+        <v>466</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>938</v>
@@ -10110,9 +10128,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>940</v>
@@ -10124,9 +10142,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>942</v>
@@ -10138,9 +10156,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
-        <v>469.0</v>
+        <v>469</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>944</v>
@@ -10152,9 +10170,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>946</v>
@@ -10166,9 +10184,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
-        <v>471.0</v>
+        <v>471</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>948</v>
@@ -10180,9 +10198,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>950</v>
@@ -10194,9 +10212,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
-        <v>473.0</v>
+        <v>473</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>952</v>
@@ -10208,9 +10226,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6">
-        <v>474.0</v>
+        <v>474</v>
       </c>
       <c r="B476" s="7" t="s">
         <v>954</v>
@@ -10244,9 +10262,9 @@
       <c r="Y476" s="7"/>
       <c r="Z476" s="7"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>956</v>
@@ -10258,9 +10276,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>958</v>
@@ -10272,9 +10290,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
-        <v>477.0</v>
+        <v>477</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>960</v>
@@ -10286,9 +10304,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
-        <v>478.0</v>
+        <v>478</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>962</v>
@@ -10300,9 +10318,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
-        <v>479.0</v>
+        <v>479</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>964</v>
@@ -10314,9 +10332,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>966</v>
@@ -10328,9 +10346,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
-        <v>481.0</v>
+        <v>481</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>968</v>
@@ -10338,10 +10356,13 @@
       <c r="C483" s="4" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="484" ht="14.25" customHeight="1">
+      <c r="D483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>970</v>
@@ -10353,9 +10374,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
-        <v>483.0</v>
+        <v>483</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>972</v>
@@ -10367,9 +10388,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
-        <v>484.0</v>
+        <v>484</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>974</v>
@@ -10381,9 +10402,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>976</v>
@@ -10395,9 +10416,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
-        <v>486.0</v>
+        <v>486</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>978</v>
@@ -10409,9 +10430,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="B489" s="7" t="s">
         <v>980</v>
@@ -10445,9 +10466,9 @@
       <c r="Y489" s="7"/>
       <c r="Z489" s="7"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
-        <v>488.0</v>
+        <v>488</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>982</v>
@@ -10459,9 +10480,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>984</v>
@@ -10473,9 +10494,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>986</v>
@@ -10487,9 +10508,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
-        <v>491.0</v>
+        <v>491</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>988</v>
@@ -10501,9 +10522,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
-        <v>492.0</v>
+        <v>492</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>990</v>
@@ -10515,9 +10536,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6">
-        <v>493.0</v>
+        <v>493</v>
       </c>
       <c r="B495" s="7" t="s">
         <v>992</v>
@@ -10551,9 +10572,9 @@
       <c r="Y495" s="7"/>
       <c r="Z495" s="7"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
-        <v>494.0</v>
+        <v>494</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>994</v>
@@ -10565,9 +10586,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>996</v>
@@ -10579,9 +10600,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
-        <v>496.0</v>
+        <v>496</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>998</v>
@@ -10593,9 +10614,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
-        <v>497.0</v>
+        <v>497</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>1000</v>
@@ -10607,9 +10628,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>1002</v>
@@ -10621,9 +10642,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
-        <v>499.0</v>
+        <v>499</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>1004</v>
@@ -10635,9 +10656,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>1006</v>
@@ -10649,9 +10670,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>1008</v>
@@ -10663,9 +10684,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>1010</v>
@@ -10677,9 +10698,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
-        <v>503.0</v>
+        <v>503</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>1012</v>
@@ -10691,9 +10712,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
-        <v>504.0</v>
+        <v>504</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>1014</v>
@@ -10705,9 +10726,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>1016</v>
@@ -10719,9 +10740,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
-        <v>506.0</v>
+        <v>506</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>1018</v>
@@ -10733,9 +10754,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>1020</v>
@@ -10747,9 +10768,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>1022</v>
@@ -10761,9 +10782,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
-        <v>509.0</v>
+        <v>509</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>1024</v>
@@ -10775,499 +10796,497 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="512" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>